--- a/docs/Language Waves/wave2.xlsx
+++ b/docs/Language Waves/wave2.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Feb 15\OVWMigration\docs\Language Waves\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="en_dz" sheetId="2" r:id="rId1"/>
-    <sheet name="fr_dz" sheetId="3" r:id="rId2"/>
-    <sheet name="de_at" sheetId="4" r:id="rId3"/>
-    <sheet name="fr_be" sheetId="5" r:id="rId4"/>
-    <sheet name="nl_be" sheetId="6" r:id="rId5"/>
-    <sheet name="en_be" sheetId="7" r:id="rId6"/>
-    <sheet name="de_ch" sheetId="8" r:id="rId7"/>
-    <sheet name="fr_ch" sheetId="9" r:id="rId8"/>
-    <sheet name="en_za" sheetId="10" r:id="rId9"/>
+    <sheet name="en_za" sheetId="10" r:id="rId2"/>
+    <sheet name="nl_be" sheetId="6" r:id="rId3"/>
+    <sheet name="en_be" sheetId="7" r:id="rId4"/>
+    <sheet name="de_ch" sheetId="8" r:id="rId5"/>
+    <sheet name="de_at" sheetId="4" r:id="rId6"/>
+    <sheet name="de_de" sheetId="11" r:id="rId7"/>
+    <sheet name="de_intl" sheetId="13" r:id="rId8"/>
+    <sheet name="fr_dz" sheetId="3" r:id="rId9"/>
+    <sheet name="fr_be" sheetId="5" r:id="rId10"/>
+    <sheet name="fr_ch" sheetId="9" r:id="rId11"/>
+    <sheet name="fr_fr" sheetId="12" r:id="rId12"/>
+    <sheet name="fr_intl" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="327">
   <si>
     <t>training-events-var1</t>
   </si>
@@ -828,6 +837,186 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/ZA/products/wireless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/collaboration/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/telepresence/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/datacenter/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/datacenter/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/borderless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/borderless/prodportfolio.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/midsize/products_solutions.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/midsize/index.html</t>
+  </si>
+  <si>
+    <t>overview-WebVar3</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/services/order-services/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/routers/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/routers/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/security/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/security/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/sp/product-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/switches/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/switches/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/wireless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/wireless/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/about_cisco/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/acheter/acheter_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/strategy/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/services/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/smb/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/events/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/collaboration/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/telepresence/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/datacenter/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/datacenter/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/borderless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/borderless/prodportfolio.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/executive/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/midsize/products_solutions.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/midsize/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/services/order-services/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/routers/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/routers/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/security/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/security/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/sp/product-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/switches/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/switches/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/wireless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/wireless/products.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/uinfo/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/ordering/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/support/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/strategy/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/services/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/verticals/smb/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/events/events_home.html</t>
   </si>
 </sst>
 </file>
@@ -891,12 +1080,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -998,7 +1193,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1013,6 +1208,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1436,7 +1633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1447,7 +1644,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,675 +1786,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A7">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A1" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A21" r:id="rId21"/>
-    <hyperlink ref="A22" r:id="rId22"/>
-    <hyperlink ref="A23" r:id="rId23"/>
-    <hyperlink ref="A24" r:id="rId24"/>
-    <hyperlink ref="A25" r:id="rId25"/>
-    <hyperlink ref="A26" r:id="rId26"/>
-    <hyperlink ref="A27" r:id="rId27"/>
-    <hyperlink ref="A28" r:id="rId28"/>
-    <hyperlink ref="A29" r:id="rId29"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +2208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
@@ -2692,7 +2225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -2706,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>170</v>
       </c>
@@ -2717,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
@@ -2770,1556 +2303,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="7" priority="39"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="6" priority="48"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A1" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A22" r:id="rId20"/>
-    <hyperlink ref="A23" r:id="rId21"/>
-    <hyperlink ref="A24" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A27" r:id="rId25"/>
-    <hyperlink ref="A10" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15"/>
-    <hyperlink ref="A16" r:id="rId16"/>
-    <hyperlink ref="A17" r:id="rId17"/>
-    <hyperlink ref="A18" r:id="rId18"/>
-    <hyperlink ref="A19" r:id="rId19"/>
-    <hyperlink ref="A20" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -4828,11 +2816,1034 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -5356,4 +4367,3265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A27">
+    <cfRule type="duplicateValues" dxfId="7" priority="39"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A27">
+    <cfRule type="duplicateValues" dxfId="6" priority="48"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A10" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A1:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A27">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A1:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A27">
+    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A21" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A23" r:id="rId23"/>
+    <hyperlink ref="A24" r:id="rId24"/>
+    <hyperlink ref="A25" r:id="rId25"/>
+    <hyperlink ref="A26" r:id="rId26"/>
+    <hyperlink ref="A27" r:id="rId27"/>
+    <hyperlink ref="A28" r:id="rId28"/>
+    <hyperlink ref="A29" r:id="rId29"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.cisco.com/web/DE/solutions/datacenter/architecture.html"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.cisco.com/web/DE/solutions/datacenter/architecture.html"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A7">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Language Waves/wave2.xlsx
+++ b/docs/Language Waves/wave2.xlsx
@@ -26,7 +26,7 @@
     <sheet name="fr_fr" sheetId="12" r:id="rId12"/>
     <sheet name="fr_intl" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="322">
   <si>
     <t>training-events-var1</t>
   </si>
   <si>
-    <t>training-events</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>about-webvar1</t>
   </si>
   <si>
-    <t>about</t>
-  </si>
-  <si>
     <t>index-Rrootvar1</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>products-fsvar4</t>
   </si>
   <si>
-    <t>order-services</t>
-  </si>
-  <si>
     <t>order-services-webvar11</t>
   </si>
   <si>
@@ -171,12 +162,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/EA/midsize/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">midsize </t>
-  </si>
-  <si>
-    <t xml:space="preserve">overview-WebVar3 </t>
   </si>
   <si>
     <t>product-listing-var8</t>
@@ -1644,7 +1629,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,117 +1641,111 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1790,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,470 +1782,462 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -2307,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,467 +2291,462 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2820,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,465 +2800,457 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3332,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,465 +3303,457 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3794,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,491 +3802,487 @@
     <col min="1" max="1" width="67.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A25">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -4373,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,470 +4332,462 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="7" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="39"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4889,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,470 +4840,462 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="6" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="48"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -5405,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:A29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5418,467 +5348,462 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5918,8 +5843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:A29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5931,470 +5856,462 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A27">
-    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -6435,7 +6352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6446,479 +6365,474 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6960,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,479 +6887,474 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7488,7 +7397,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,122 +7409,116 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A7">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/docs/Language Waves/wave2.xlsx
+++ b/docs/Language Waves/wave2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Feb 15\OVWMigration\docs\Language Waves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Feb15\OVWMigration\docs\Language Waves\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="en_dz" sheetId="2" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="320">
   <si>
     <t>training-events-var1</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>about-webvar1</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/CH/de/unified_channels/order/index.html</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/CH/de/solution/smb/index.html</t>
@@ -1628,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,111 +1635,111 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1764,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,457 +1776,457 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2291,457 +2285,457 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2781,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,457 +2794,457 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3290,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,457 +3297,457 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3807,468 +3801,468 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4332,457 +4326,457 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4840,457 +4834,457 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5348,457 +5342,457 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5844,7 +5838,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5856,457 +5850,457 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
         <v>163</v>
       </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6365,474 +6359,474 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6875,7 +6869,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,474 +6881,474 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7397,7 +7391,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7409,111 +7403,111 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
